--- a/CMPE 315/Lab2/315 Lab 2.xlsx
+++ b/CMPE 315/Lab2/315 Lab 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nehmyanegash/Desktop/YERRR/CMPE 315/Lab2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehmy\OneDrive\Desktop\YERRR\CMPE 315\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF92338-7CCB-4C4B-B01D-F7C62A153D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09992204-6934-47CC-B07A-19649915F8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2970" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>rise 4.5</t>
   </si>
@@ -352,7 +352,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet1!$D$17,Sheet1!$D$19,Sheet1!$D$21)</c:f>
+              <c:f>(Sheet1!$D$24,Sheet1!$D$26,Sheet1!$D$28)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -403,7 +403,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet1!$D$18,Sheet1!$D$20,Sheet1!$D$22)</c:f>
+              <c:f>(Sheet1!$D$25,Sheet1!$D$27,Sheet1!$D$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -454,7 +454,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet1!$D$23,Sheet1!$D$25,Sheet1!$D$27)</c:f>
+              <c:f>(Sheet1!$D$30,Sheet1!$D$32,Sheet1!$D$34)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -502,7 +502,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet1!$D$24,Sheet1!$D$26,Sheet1!$D$28)</c:f>
+              <c:f>(Sheet1!$D$31,Sheet1!$D$33,Sheet1!$D$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -854,7 +854,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet1!$G$17,Sheet1!$G$19,Sheet1!$G$21)</c:f>
+              <c:f>(Sheet1!$G$24,Sheet1!$G$26,Sheet1!$G$28)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -905,7 +905,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet1!$G$18,Sheet1!$G$20,Sheet1!$G$22)</c:f>
+              <c:f>(Sheet1!$G$25,Sheet1!$G$27,Sheet1!$G$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -956,7 +956,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet1!$G$23,Sheet1!$G$25,Sheet1!$G$27)</c:f>
+              <c:f>(Sheet1!$G$30,Sheet1!$G$32,Sheet1!$G$34)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1007,7 +1007,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet1!$D$24,Sheet1!$D$26,Sheet1!$D$28,Sheet1!$G$24,Sheet1!$G$26,Sheet1!$G$28)</c:f>
+              <c:f>(Sheet1!$D$31,Sheet1!$D$33,Sheet1!$D$35,Sheet1!$G$31,Sheet1!$G$33,Sheet1!$G$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1359,7 +1359,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:f>Sheet1!$D$9:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1422,7 +1422,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$7:$D$11</c:f>
+              <c:f>Sheet1!$D$14:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1485,7 +1485,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$12:$D$16</c:f>
+              <c:f>Sheet1!$D$19:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1834,7 +1834,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$6</c:f>
+              <c:f>Sheet1!$J$9:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1897,7 +1897,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$7:$J$11</c:f>
+              <c:f>Sheet1!$J$14:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1960,7 +1960,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$12:$J$16</c:f>
+              <c:f>Sheet1!$J$19:$J$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2291,7 +2291,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$2:$M$6</c:f>
+              <c:f>Sheet1!$M$9:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2354,7 +2354,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$7:$M$11</c:f>
+              <c:f>Sheet1!$M$14:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2417,7 +2417,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$12:$M$16</c:f>
+              <c:f>Sheet1!$M$19:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2766,7 +2766,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$6</c:f>
+              <c:f>Sheet1!$G$9:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2829,7 +2829,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$7:$G$11</c:f>
+              <c:f>Sheet1!$G$14:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2892,7 +2892,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$12:$G$16</c:f>
+              <c:f>Sheet1!$G$19:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3133,7 +3133,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -3166,7 +3166,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -3199,7 +3199,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -3232,7 +3232,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -3265,7 +3265,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -3298,7 +3298,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -3531,18 +3531,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -3583,1299 +3583,1502 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1">
-        <v>7.0112399999999999</v>
+        <v>6.8461400000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>6.7634800000000004</v>
+        <v>6.22689</v>
       </c>
       <c r="D2" s="3">
         <f>ABS(B2-C2)</f>
-        <v>0.24775999999999954</v>
+        <v>0.61925000000000008</v>
       </c>
       <c r="E2" s="1">
-        <v>1.27454</v>
+        <v>1.0845499999999999</v>
       </c>
       <c r="F2" s="1">
-        <v>1.5058100000000001</v>
+        <v>1.24736</v>
       </c>
       <c r="G2" s="3">
         <f>ABS(E2-F2)</f>
-        <v>0.23127000000000009</v>
+        <v>0.16281000000000012</v>
       </c>
       <c r="H2" s="1">
-        <v>6.8854899999999999</v>
+        <v>6.4062799999999998</v>
       </c>
       <c r="I2" s="1">
-        <v>6.75</v>
+        <v>6.15</v>
       </c>
       <c r="J2" s="3">
         <f>ABS(H2-I2)</f>
-        <v>0.13548999999999989</v>
+        <v>0.2562799999999994</v>
       </c>
       <c r="K2" s="1">
-        <v>1.39771</v>
+        <v>1.14083</v>
       </c>
       <c r="L2" s="1">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="M2" s="3">
         <f>ABS(K2-L2)</f>
-        <v>0.14771000000000001</v>
+        <v>9.0829999999999966E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1">
-        <v>7.0882800000000001</v>
+        <v>6.5128899999999996</v>
       </c>
       <c r="C3" s="1">
-        <v>6.7778900000000002</v>
+        <v>6.2088599999999996</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D28" si="0">ABS(B3-C3)</f>
-        <v>0.31038999999999994</v>
+        <f t="shared" ref="D3:D8" si="0">ABS(B3-C3)</f>
+        <v>0.30403000000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>1.2874699999999999</v>
+        <v>1.09859</v>
       </c>
       <c r="F3" s="1">
-        <v>1.58341</v>
+        <v>1.40235</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G28" si="1">ABS(E3-F3)</f>
-        <v>0.29594000000000009</v>
+        <f t="shared" ref="G3:G8" si="1">ABS(E3-F3)</f>
+        <v>0.30376000000000003</v>
       </c>
       <c r="H3" s="1">
-        <v>6.9192499999999999</v>
+        <v>6.3003</v>
       </c>
       <c r="I3" s="1">
-        <v>6.75</v>
+        <v>6.15</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J16" si="2">ABS(H3-I3)</f>
-        <v>0.1692499999999999</v>
+        <f t="shared" ref="J3:J4" si="2">ABS(H3-I3)</f>
+        <v>0.15029999999999966</v>
       </c>
       <c r="K3" s="1">
-        <v>1.4319</v>
+        <v>1.1870000000000001</v>
       </c>
       <c r="L3" s="1">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M16" si="3">ABS(K3-L3)</f>
-        <v>0.18189999999999995</v>
+        <f t="shared" ref="M3:M4" si="3">ABS(K3-L3)</f>
+        <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1">
-        <v>7.2301399999999996</v>
+        <v>7.02705</v>
       </c>
       <c r="C4" s="1">
-        <v>6.8011299999999997</v>
+        <v>6.2346899999999996</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>0.42900999999999989</v>
+        <v>0.7923600000000004</v>
       </c>
       <c r="E4" s="1">
-        <v>1.3095600000000001</v>
+        <v>1.1091500000000001</v>
       </c>
       <c r="F4" s="1">
-        <v>1.72831</v>
+        <v>1.5811999999999999</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="1"/>
-        <v>0.41874999999999996</v>
+        <v>0.47204999999999986</v>
       </c>
       <c r="H4" s="1">
-        <v>6.9774500000000002</v>
+        <v>6.4962299999999997</v>
       </c>
       <c r="I4" s="1">
-        <v>6.75</v>
+        <v>6.15</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" si="2"/>
-        <v>0.22745000000000015</v>
+        <v>0.34622999999999937</v>
       </c>
       <c r="K4" s="1">
-        <v>1.4912799999999999</v>
+        <v>1.2707599999999999</v>
       </c>
       <c r="L4" s="1">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" si="3"/>
-        <v>0.24127999999999994</v>
+        <v>0.22075999999999985</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1">
-        <v>7.50434</v>
+        <v>27.881699999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>6.8380400000000003</v>
+        <v>27.078600000000002</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0.66629999999999967</v>
+        <v>0.80309999999999704</v>
       </c>
       <c r="E5" s="1">
-        <v>1.34477</v>
+        <v>1.7909600000000001</v>
       </c>
       <c r="F5" s="1">
-        <v>2.0055100000000001</v>
+        <v>2.31833</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="1"/>
-        <v>0.66074000000000011</v>
-      </c>
-      <c r="H5" s="1">
-        <v>7.08005</v>
-      </c>
-      <c r="I5" s="1">
-        <v>6.75</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" si="2"/>
-        <v>0.33004999999999995</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1.5986499999999999</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="M5" s="3">
-        <f t="shared" si="3"/>
-        <v>0.3486499999999999</v>
-      </c>
+        <v>0.52736999999999989</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1">
-        <v>8.0579800000000006</v>
+        <v>17.884</v>
       </c>
       <c r="C6" s="1">
-        <v>6.88727</v>
+        <v>17.084700000000002</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>1.1707100000000006</v>
+        <v>0.79929999999999879</v>
       </c>
       <c r="E6" s="1">
-        <v>1.3931199999999999</v>
+        <v>1.93767</v>
       </c>
       <c r="F6" s="1">
-        <v>2.5630600000000001</v>
+        <v>2.4605000000000001</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="1"/>
-        <v>1.1699400000000002</v>
-      </c>
-      <c r="H6" s="1">
-        <v>7.2934200000000002</v>
-      </c>
-      <c r="I6" s="1">
-        <v>6.75</v>
-      </c>
-      <c r="J6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.54342000000000024</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1.8197099999999999</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="M6" s="3">
-        <f t="shared" si="3"/>
-        <v>0.56970999999999994</v>
-      </c>
+        <v>0.52283000000000013</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1">
-        <v>6.9545599999999999</v>
+        <v>27.1358</v>
       </c>
       <c r="C7" s="1">
-        <v>6.7538299999999998</v>
+        <v>26.7562</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>0.20073000000000008</v>
+        <v>0.37959999999999994</v>
       </c>
       <c r="E7" s="1">
-        <v>1.23987</v>
+        <v>1.5688200000000001</v>
       </c>
       <c r="F7" s="1">
-        <v>1.4234800000000001</v>
+        <v>1.9415100000000001</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="1"/>
-        <v>0.18361000000000005</v>
-      </c>
-      <c r="H7" s="1">
-        <v>6.8622899999999998</v>
-      </c>
-      <c r="I7" s="1">
-        <v>6.75</v>
-      </c>
-      <c r="J7" s="3">
-        <f t="shared" si="2"/>
-        <v>0.11228999999999978</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1.3478300000000001</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="M7" s="3">
-        <f t="shared" si="3"/>
-        <v>9.7830000000000084E-2</v>
-      </c>
+        <v>0.37268999999999997</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1">
-        <v>6.9957200000000004</v>
+        <v>17.142299999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>6.7607400000000002</v>
+        <v>16.7638</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>0.23498000000000019</v>
+        <v>0.37849999999999895</v>
       </c>
       <c r="E8" s="1">
-        <v>1.2463900000000001</v>
+        <v>1.54965</v>
       </c>
       <c r="F8" s="1">
-        <v>1.4588000000000001</v>
+        <v>1.92424</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="1"/>
-        <v>0.21240999999999999</v>
-      </c>
-      <c r="H8" s="1">
-        <v>6.8797800000000002</v>
-      </c>
-      <c r="I8" s="1">
-        <v>6.75</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="2"/>
-        <v>0.12978000000000023</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1.3651599999999999</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="M8" s="3">
-        <f t="shared" si="3"/>
-        <v>0.11515999999999993</v>
-      </c>
+        <v>0.37458999999999998</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
-        <v>7.06569</v>
+        <v>7.0112399999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>6.7731500000000002</v>
+        <v>6.7634800000000004</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.2925399999999998</v>
+        <f>ABS(B9-C9)</f>
+        <v>0.24775999999999954</v>
       </c>
       <c r="E9" s="1">
-        <v>1.25844</v>
+        <v>1.27454</v>
       </c>
       <c r="F9" s="1">
-        <v>1.5273699999999999</v>
+        <v>1.5058100000000001</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="1"/>
-        <v>0.26892999999999989</v>
+        <f>ABS(E9-F9)</f>
+        <v>0.23127000000000009</v>
       </c>
       <c r="H9" s="1">
-        <v>6.9103399999999997</v>
+        <v>6.8854899999999999</v>
       </c>
       <c r="I9" s="1">
         <v>6.75</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="2"/>
-        <v>0.1603399999999997</v>
+        <f>ABS(H9-I9)</f>
+        <v>0.13548999999999989</v>
       </c>
       <c r="K9" s="1">
-        <v>1.39577</v>
+        <v>1.39771</v>
       </c>
       <c r="L9" s="1">
         <v>1.25</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="3"/>
-        <v>0.14576999999999996</v>
+        <f>ABS(K9-L9)</f>
+        <v>0.14771000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>7.1962000000000002</v>
+        <v>7.0882800000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>6.79556</v>
+        <v>6.7778900000000002</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.40064000000000011</v>
+        <f t="shared" ref="D10:D35" si="4">ABS(B10-C10)</f>
+        <v>0.31038999999999994</v>
       </c>
       <c r="E10" s="1">
-        <v>1.27911</v>
+        <v>1.2874699999999999</v>
       </c>
       <c r="F10" s="1">
-        <v>1.65059</v>
+        <v>1.58341</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="1"/>
-        <v>0.37148000000000003</v>
+        <f t="shared" ref="G10:G35" si="5">ABS(E10-F10)</f>
+        <v>0.29594000000000009</v>
       </c>
       <c r="H10" s="1">
-        <v>6.9635300000000004</v>
+        <v>6.9192499999999999</v>
       </c>
       <c r="I10" s="1">
         <v>6.75</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="2"/>
-        <v>0.21353000000000044</v>
+        <f t="shared" ref="J10:J23" si="6">ABS(H10-I10)</f>
+        <v>0.1692499999999999</v>
       </c>
       <c r="K10" s="1">
-        <v>1.4482200000000001</v>
+        <v>1.4319</v>
       </c>
       <c r="L10" s="1">
         <v>1.25</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="3"/>
-        <v>0.19822000000000006</v>
+        <f t="shared" ref="M10:M23" si="7">ABS(K10-L10)</f>
+        <v>0.18189999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>7.4456100000000003</v>
+        <v>7.2301399999999996</v>
       </c>
       <c r="C11" s="1">
-        <v>6.8305600000000002</v>
+        <v>6.8011299999999997</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.6150500000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.42900999999999989</v>
       </c>
       <c r="E11" s="1">
-        <v>1.31206</v>
+        <v>1.3095600000000001</v>
       </c>
       <c r="F11" s="1">
-        <v>1.8786400000000001</v>
+        <v>1.72831</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="1"/>
-        <v>0.56658000000000008</v>
+        <f t="shared" si="5"/>
+        <v>0.41874999999999996</v>
       </c>
       <c r="H11" s="1">
-        <v>7.0567700000000002</v>
+        <v>6.9774500000000002</v>
       </c>
       <c r="I11" s="1">
         <v>6.75</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="2"/>
-        <v>0.30677000000000021</v>
+        <f t="shared" si="6"/>
+        <v>0.22745000000000015</v>
       </c>
       <c r="K11" s="1">
-        <v>1.53681</v>
+        <v>1.4912799999999999</v>
       </c>
       <c r="L11" s="1">
         <v>1.25</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="3"/>
-        <v>0.28681000000000001</v>
+        <f t="shared" si="7"/>
+        <v>0.24127999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>6.9324599999999998</v>
+        <v>7.50434</v>
       </c>
       <c r="C12" s="1">
-        <v>6.7483599999999999</v>
+        <v>6.8380400000000003</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.18409999999999993</v>
+        <f t="shared" si="4"/>
+        <v>0.66629999999999967</v>
       </c>
       <c r="E12" s="1">
-        <v>1.2219</v>
+        <v>1.34477</v>
       </c>
       <c r="F12" s="1">
-        <v>1.3897900000000001</v>
+        <v>2.0055100000000001</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="1"/>
-        <v>0.16789000000000009</v>
+        <f t="shared" si="5"/>
+        <v>0.66074000000000011</v>
       </c>
       <c r="H12" s="1">
-        <v>6.8516500000000002</v>
+        <v>7.08005</v>
       </c>
       <c r="I12" s="1">
         <v>6.75</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="2"/>
-        <v>0.10165000000000024</v>
+        <f t="shared" si="6"/>
+        <v>0.33004999999999995</v>
       </c>
       <c r="K12" s="1">
-        <v>1.3235600000000001</v>
+        <v>1.5986499999999999</v>
       </c>
       <c r="L12" s="1">
         <v>1.25</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="3"/>
-        <v>7.356000000000007E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.3486499999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>6.9495500000000003</v>
+        <v>8.0579800000000006</v>
       </c>
       <c r="C13" s="1">
-        <v>6.7513800000000002</v>
+        <v>6.88727</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.19817000000000018</v>
+        <f t="shared" si="4"/>
+        <v>1.1707100000000006</v>
       </c>
       <c r="E13" s="1">
-        <v>1.25519</v>
+        <v>1.3931199999999999</v>
       </c>
       <c r="F13" s="1">
-        <v>1.4057599999999999</v>
+        <v>2.5630600000000001</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="1"/>
-        <v>0.15056999999999987</v>
+        <f t="shared" si="5"/>
+        <v>1.1699400000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>6.8606499999999997</v>
+        <v>7.2934200000000002</v>
       </c>
       <c r="I13" s="1">
         <v>6.75</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="2"/>
-        <v>0.11064999999999969</v>
+        <f t="shared" si="6"/>
+        <v>0.54342000000000024</v>
       </c>
       <c r="K13" s="1">
-        <v>1.3326100000000001</v>
+        <v>1.8197099999999999</v>
       </c>
       <c r="L13" s="1">
         <v>1.25</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="3"/>
-        <v>8.2610000000000072E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.56970999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
-        <v>6.9876199999999997</v>
+        <v>6.9545599999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>6.7783499999999997</v>
+        <v>6.7538299999999998</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20927000000000007</v>
+        <f t="shared" si="4"/>
+        <v>0.20073000000000008</v>
       </c>
       <c r="E14" s="1">
-        <v>1.23153</v>
+        <v>1.23987</v>
       </c>
       <c r="F14" s="1">
-        <v>1.43791</v>
+        <v>1.4234800000000001</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="1"/>
-        <v>0.20638000000000001</v>
+        <f t="shared" si="5"/>
+        <v>0.18361000000000005</v>
       </c>
       <c r="H14" s="1">
-        <v>6.8771100000000001</v>
+        <v>6.8622899999999998</v>
       </c>
       <c r="I14" s="1">
         <v>6.75</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="2"/>
-        <v>0.12711000000000006</v>
+        <f t="shared" si="6"/>
+        <v>0.11228999999999978</v>
       </c>
       <c r="K14" s="1">
-        <v>1.3491899999999999</v>
+        <v>1.3478300000000001</v>
       </c>
       <c r="L14" s="1">
         <v>1.25</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="3"/>
-        <v>9.9189999999999889E-2</v>
+        <f t="shared" si="7"/>
+        <v>9.7830000000000084E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>7.0553699999999999</v>
+        <v>6.9957200000000004</v>
       </c>
       <c r="C15" s="1">
-        <v>6.7706499999999998</v>
+        <v>6.7607400000000002</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>0.28472000000000008</v>
+        <f t="shared" si="4"/>
+        <v>0.23498000000000019</v>
       </c>
       <c r="E15" s="1">
-        <v>1.2430699999999999</v>
+        <v>1.2463900000000001</v>
       </c>
       <c r="F15" s="1">
-        <v>1.5039</v>
+        <v>1.4588000000000001</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="1"/>
-        <v>0.26083000000000012</v>
+        <f t="shared" si="5"/>
+        <v>0.21240999999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>6.9065200000000004</v>
+        <v>6.8797800000000002</v>
       </c>
       <c r="I15" s="1">
         <v>6.75</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="2"/>
-        <v>0.15652000000000044</v>
+        <f t="shared" si="6"/>
+        <v>0.12978000000000023</v>
       </c>
       <c r="K15" s="1">
-        <v>1.37825</v>
+        <v>1.3651599999999999</v>
       </c>
       <c r="L15" s="1">
         <v>1.25</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="3"/>
-        <v>0.12824999999999998</v>
+        <f t="shared" si="7"/>
+        <v>0.11515999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>7.1802099999999998</v>
+        <v>7.06569</v>
       </c>
       <c r="C16" s="1">
-        <v>6.7918799999999999</v>
+        <v>6.7731500000000002</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.38832999999999984</v>
+        <f t="shared" si="4"/>
+        <v>0.2925399999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>1.2630699999999999</v>
+        <v>1.25844</v>
       </c>
       <c r="F16" s="1">
-        <v>1.6165400000000001</v>
+        <v>1.5273699999999999</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="1"/>
-        <v>0.35347000000000017</v>
+        <f t="shared" si="5"/>
+        <v>0.26892999999999989</v>
       </c>
       <c r="H16" s="1">
-        <v>6.9569599999999996</v>
+        <v>6.9103399999999997</v>
       </c>
       <c r="I16" s="1">
         <v>6.75</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="2"/>
-        <v>0.20695999999999959</v>
+        <f t="shared" si="6"/>
+        <v>0.1603399999999997</v>
       </c>
       <c r="K16" s="1">
-        <v>1.4275199999999999</v>
+        <v>1.39577</v>
       </c>
       <c r="L16" s="1">
         <v>1.25</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>0.14576999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7.1962000000000002</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6.79556</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="4"/>
+        <v>0.40064000000000011</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.27911</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.65059</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="5"/>
+        <v>0.37148000000000003</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6.9635300000000004</v>
+      </c>
+      <c r="I17" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="6"/>
+        <v>0.21353000000000044</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1.4482200000000001</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="7"/>
+        <v>0.19822000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7.4456100000000003</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6.8305600000000002</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="4"/>
+        <v>0.6150500000000001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.31206</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.8786400000000001</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="5"/>
+        <v>0.56658000000000008</v>
+      </c>
+      <c r="H18" s="1">
+        <v>7.0567700000000002</v>
+      </c>
+      <c r="I18" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="6"/>
+        <v>0.30677000000000021</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1.53681</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="7"/>
+        <v>0.28681000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6.9324599999999998</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6.7483599999999999</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="4"/>
+        <v>0.18409999999999993</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.2219</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.3897900000000001</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="5"/>
+        <v>0.16789000000000009</v>
+      </c>
+      <c r="H19" s="1">
+        <v>6.8516500000000002</v>
+      </c>
+      <c r="I19" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="6"/>
+        <v>0.10165000000000024</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1.3235600000000001</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="7"/>
+        <v>7.356000000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6.9495500000000003</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6.7513800000000002</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="4"/>
+        <v>0.19817000000000018</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.25519</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.4057599999999999</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="5"/>
+        <v>0.15056999999999987</v>
+      </c>
+      <c r="H20" s="1">
+        <v>6.8606499999999997</v>
+      </c>
+      <c r="I20" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="6"/>
+        <v>0.11064999999999969</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1.3326100000000001</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="7"/>
+        <v>8.2610000000000072E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6.9876199999999997</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6.7783499999999997</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="4"/>
+        <v>0.20927000000000007</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.23153</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.43791</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="5"/>
+        <v>0.20638000000000001</v>
+      </c>
+      <c r="H21" s="1">
+        <v>6.8771100000000001</v>
+      </c>
+      <c r="I21" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="6"/>
+        <v>0.12711000000000006</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1.3491899999999999</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="7"/>
+        <v>9.9189999999999889E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7.0553699999999999</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6.7706499999999998</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="4"/>
+        <v>0.28472000000000008</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.2430699999999999</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.5039</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="5"/>
+        <v>0.26083000000000012</v>
+      </c>
+      <c r="H22" s="1">
+        <v>6.9065200000000004</v>
+      </c>
+      <c r="I22" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="6"/>
+        <v>0.15652000000000044</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1.37825</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="7"/>
+        <v>0.12824999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7.1802099999999998</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6.7918799999999999</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="4"/>
+        <v>0.38832999999999984</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.2630699999999999</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.6165400000000001</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="5"/>
+        <v>0.35347000000000017</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6.9569599999999996</v>
+      </c>
+      <c r="I23" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="6"/>
+        <v>0.20695999999999959</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1.4275199999999999</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="7"/>
         <v>0.1775199999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B24" s="1">
         <v>7.0762900000000002</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C24" s="1">
         <v>6.7504</v>
       </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
+      <c r="D24" s="3">
+        <f t="shared" si="4"/>
         <v>0.32589000000000024</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E24" s="1">
         <v>1.33941</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F24" s="1">
         <v>1.59911</v>
       </c>
-      <c r="G17" s="3">
-        <f t="shared" si="1"/>
+      <c r="G24" s="3">
+        <f t="shared" si="5"/>
         <v>0.25970000000000004</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="3"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="3"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="3"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B25" s="1">
         <v>7.1026499999999997</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C25" s="1">
         <v>6.8012300000000003</v>
       </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
+      <c r="D25" s="3">
+        <f t="shared" si="4"/>
         <v>0.30141999999999936</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E25" s="1">
         <v>1.3446100000000001</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F25" s="1">
         <v>1.75766</v>
       </c>
-      <c r="G18" s="3">
-        <f t="shared" si="1"/>
+      <c r="G25" s="3">
+        <f t="shared" si="5"/>
         <v>0.41304999999999992</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B26" s="1">
         <v>7.1409700000000003</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C26" s="1">
         <v>6.7618099999999997</v>
       </c>
-      <c r="D19" s="3">
-        <f t="shared" si="0"/>
+      <c r="D26" s="3">
+        <f t="shared" si="4"/>
         <v>0.37916000000000061</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E26" s="1">
         <v>1.3486100000000001</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F26" s="1">
         <v>1.7648699999999999</v>
       </c>
-      <c r="G19" s="3">
-        <f t="shared" si="1"/>
+      <c r="G26" s="3">
+        <f t="shared" si="5"/>
         <v>0.41625999999999985</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B27" s="1">
         <v>7.1647800000000004</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C27" s="1">
         <v>6.8109700000000002</v>
       </c>
-      <c r="D20" s="3">
-        <f t="shared" si="0"/>
+      <c r="D27" s="3">
+        <f t="shared" si="4"/>
         <v>0.35381000000000018</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E27" s="1">
         <v>1.35358</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F27" s="1">
         <v>1.83064</v>
       </c>
-      <c r="G20" s="3">
-        <f t="shared" si="1"/>
+      <c r="G27" s="3">
+        <f t="shared" si="5"/>
         <v>0.47706000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B28" s="1">
         <v>7.2658199999999997</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C28" s="1">
         <v>6.78104</v>
       </c>
-      <c r="D21" s="3">
-        <f t="shared" si="0"/>
+      <c r="D28" s="3">
+        <f t="shared" si="4"/>
         <v>0.48477999999999977</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E28" s="1">
         <v>1.3651500000000001</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F28" s="1">
         <v>1.81813</v>
       </c>
-      <c r="G21" s="3">
-        <f t="shared" si="1"/>
+      <c r="G28" s="3">
+        <f t="shared" si="5"/>
         <v>0.45297999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B29" s="1">
         <v>7.2873099999999997</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C29" s="1">
         <v>6.8263800000000003</v>
       </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
+      <c r="D29" s="3">
+        <f t="shared" si="4"/>
         <v>0.4609299999999994</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E29" s="1">
         <v>1.37015</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F29" s="1">
         <v>1.97238</v>
       </c>
-      <c r="G22" s="3">
-        <f t="shared" si="1"/>
+      <c r="G29" s="3">
+        <f t="shared" si="5"/>
         <v>0.60223000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B30" s="1">
         <v>7.2001499999999998</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C30" s="1">
         <v>6.8220200000000002</v>
       </c>
-      <c r="D23" s="3">
-        <f t="shared" si="0"/>
+      <c r="D30" s="3">
+        <f t="shared" si="4"/>
         <v>0.37812999999999963</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E30" s="1">
         <v>1.27119</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F30" s="1">
         <v>1.51539</v>
       </c>
-      <c r="G23" s="3">
-        <f t="shared" si="1"/>
+      <c r="G30" s="3">
+        <f t="shared" si="5"/>
         <v>0.24419999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B31" s="1">
         <v>7.0997700000000004</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C31" s="1">
         <v>6.8193400000000004</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="0"/>
-        <v>0.28042999999999996</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1.2399</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1.5154399999999999</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" si="1"/>
-        <v>0.2755399999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="1">
-        <v>7.2713200000000002</v>
-      </c>
-      <c r="C25" s="1">
-        <v>6.8320100000000004</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="0"/>
-        <v>0.43930999999999987</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1.27823</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1.5684899999999999</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" si="1"/>
-        <v>0.29025999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="1">
-        <v>7.1739699999999997</v>
-      </c>
-      <c r="C26" s="1">
-        <v>6.8295399999999997</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" si="0"/>
-        <v>0.34443000000000001</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1.24919</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1.5705800000000001</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" si="1"/>
-        <v>0.32139000000000006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="1">
-        <v>7.4091300000000002</v>
-      </c>
-      <c r="C27" s="1">
-        <v>6.8495400000000002</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="0"/>
-        <v>0.55959000000000003</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1.29087</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1.6739999999999999</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" si="1"/>
-        <v>0.38312999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="1">
-        <v>7.3138199999999998</v>
-      </c>
-      <c r="C28" s="1">
-        <v>6.8477300000000003</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" si="0"/>
-        <v>0.46608999999999945</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1.2657700000000001</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1.6800900000000001</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" si="1"/>
-        <v>0.41432000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="1">
-        <v>6.8461400000000001</v>
-      </c>
-      <c r="C29" s="1">
-        <v>6.22689</v>
-      </c>
-      <c r="D29" s="3">
-        <f>ABS(B29-C29)</f>
-        <v>0.61925000000000008</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1.0845499999999999</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1.24736</v>
-      </c>
-      <c r="G29" s="3">
-        <f>ABS(E29-F29)</f>
-        <v>0.16281000000000012</v>
-      </c>
-      <c r="H29" s="1">
-        <v>6.4062799999999998</v>
-      </c>
-      <c r="I29" s="1">
-        <v>6.15</v>
-      </c>
-      <c r="J29" s="3">
-        <f>ABS(H29-I29)</f>
-        <v>0.2562799999999994</v>
-      </c>
-      <c r="K29" s="1">
-        <v>1.14083</v>
-      </c>
-      <c r="L29" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="M29" s="3">
-        <f>ABS(K29-L29)</f>
-        <v>9.0829999999999966E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="1">
-        <v>6.5128899999999996</v>
-      </c>
-      <c r="C30" s="1">
-        <v>6.2088599999999996</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" ref="D30:D35" si="4">ABS(B30-C30)</f>
-        <v>0.30403000000000002</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1.09859</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1.40235</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" ref="G30:G35" si="5">ABS(E30-F30)</f>
-        <v>0.30376000000000003</v>
-      </c>
-      <c r="H30" s="1">
-        <v>6.3003</v>
-      </c>
-      <c r="I30" s="1">
-        <v>6.15</v>
-      </c>
-      <c r="J30" s="3">
-        <f t="shared" ref="J30:J35" si="6">ABS(H30-I30)</f>
-        <v>0.15029999999999966</v>
-      </c>
-      <c r="K30" s="1">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="L30" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="M30" s="3">
-        <f t="shared" ref="M30:M35" si="7">ABS(K30-L30)</f>
-        <v>0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="1">
-        <v>7.02705</v>
-      </c>
-      <c r="C31" s="1">
-        <v>6.2346899999999996</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" si="4"/>
-        <v>0.7923600000000004</v>
+        <v>0.28042999999999996</v>
       </c>
       <c r="E31" s="1">
-        <v>1.1091500000000001</v>
+        <v>1.2399</v>
       </c>
       <c r="F31" s="1">
-        <v>1.5811999999999999</v>
+        <v>1.5154399999999999</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="5"/>
-        <v>0.47204999999999986</v>
-      </c>
-      <c r="H31" s="1">
-        <v>6.4962299999999997</v>
-      </c>
-      <c r="I31" s="1">
-        <v>6.15</v>
-      </c>
-      <c r="J31" s="3">
-        <f t="shared" si="6"/>
-        <v>0.34622999999999937</v>
-      </c>
-      <c r="K31" s="1">
-        <v>1.2707599999999999</v>
-      </c>
-      <c r="L31" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="M31" s="3">
-        <f t="shared" si="7"/>
-        <v>0.22075999999999985</v>
+        <v>0.2755399999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
-        <v>40</v>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>35</v>
       </c>
       <c r="B32" s="1">
-        <v>27.881699999999999</v>
+        <v>7.2713200000000002</v>
       </c>
       <c r="C32" s="1">
-        <v>27.078600000000002</v>
+        <v>6.8320100000000004</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="4"/>
-        <v>0.80309999999999704</v>
+        <v>0.43930999999999987</v>
       </c>
       <c r="E32" s="1">
-        <v>1.7909600000000001</v>
+        <v>1.27823</v>
       </c>
       <c r="F32" s="1">
-        <v>2.31833</v>
+        <v>1.5684899999999999</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="5"/>
-        <v>0.52736999999999989</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>6.15</v>
-      </c>
-      <c r="J32" s="3">
-        <f t="shared" si="6"/>
-        <v>6.15</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-      <c r="L32" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="M32" s="3">
-        <f t="shared" si="7"/>
-        <v>1.05</v>
+        <v>0.29025999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
-        <v>41</v>
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>36</v>
       </c>
       <c r="B33" s="1">
-        <v>17.884</v>
+        <v>7.1739699999999997</v>
       </c>
       <c r="C33" s="1">
-        <v>17.084700000000002</v>
+        <v>6.8295399999999997</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" si="4"/>
-        <v>0.79929999999999879</v>
+        <v>0.34443000000000001</v>
       </c>
       <c r="E33" s="1">
-        <v>1.93767</v>
+        <v>1.24919</v>
       </c>
       <c r="F33" s="1">
-        <v>2.4605000000000001</v>
+        <v>1.5705800000000001</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="5"/>
-        <v>0.52283000000000013</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>6.15</v>
-      </c>
-      <c r="J33" s="3">
-        <f t="shared" si="6"/>
-        <v>6.15</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-      <c r="L33" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="M33" s="3">
-        <f t="shared" si="7"/>
-        <v>1.05</v>
+        <v>0.32139000000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>42</v>
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>37</v>
       </c>
       <c r="B34" s="1">
-        <v>27.1358</v>
+        <v>7.4091300000000002</v>
       </c>
       <c r="C34" s="1">
-        <v>26.7562</v>
+        <v>6.8495400000000002</v>
       </c>
       <c r="D34" s="3">
         <f t="shared" si="4"/>
-        <v>0.37959999999999994</v>
+        <v>0.55959000000000003</v>
       </c>
       <c r="E34" s="1">
-        <v>1.5688200000000001</v>
+        <v>1.29087</v>
       </c>
       <c r="F34" s="1">
-        <v>1.9415100000000001</v>
+        <v>1.6739999999999999</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="5"/>
-        <v>0.37268999999999997</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>6.15</v>
-      </c>
-      <c r="J34" s="3">
-        <f t="shared" si="6"/>
-        <v>6.15</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="M34" s="3">
-        <f t="shared" si="7"/>
-        <v>1.05</v>
+        <v>0.38312999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>46</v>
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>38</v>
       </c>
       <c r="B35" s="1">
-        <v>17.142299999999999</v>
+        <v>7.3138199999999998</v>
       </c>
       <c r="C35" s="1">
-        <v>16.7638</v>
+        <v>6.8477300000000003</v>
       </c>
       <c r="D35" s="3">
         <f t="shared" si="4"/>
-        <v>0.37849999999999895</v>
+        <v>0.46608999999999945</v>
       </c>
       <c r="E35" s="1">
-        <v>1.54965</v>
+        <v>1.2657700000000001</v>
       </c>
       <c r="F35" s="1">
-        <v>1.92424</v>
+        <v>1.6800900000000001</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="5"/>
+        <v>0.41432000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1">
+        <v>6.8461400000000001</v>
+      </c>
+      <c r="C36" s="1">
+        <v>6.22689</v>
+      </c>
+      <c r="D36" s="3">
+        <f>ABS(B36-C36)</f>
+        <v>0.61925000000000008</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1.0845499999999999</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1.24736</v>
+      </c>
+      <c r="G36" s="3">
+        <f>ABS(E36-F36)</f>
+        <v>0.16281000000000012</v>
+      </c>
+      <c r="H36" s="1">
+        <v>6.4062799999999998</v>
+      </c>
+      <c r="I36" s="1">
+        <v>6.15</v>
+      </c>
+      <c r="J36" s="3">
+        <f>ABS(H36-I36)</f>
+        <v>0.2562799999999994</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1.14083</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="M36" s="3">
+        <f>ABS(K36-L36)</f>
+        <v>9.0829999999999966E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="1">
+        <v>6.5128899999999996</v>
+      </c>
+      <c r="C37" s="1">
+        <v>6.2088599999999996</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" ref="D37:D42" si="8">ABS(B37-C37)</f>
+        <v>0.30403000000000002</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.09859</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.40235</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" ref="G37:G42" si="9">ABS(E37-F37)</f>
+        <v>0.30376000000000003</v>
+      </c>
+      <c r="H37" s="1">
+        <v>6.3003</v>
+      </c>
+      <c r="I37" s="1">
+        <v>6.15</v>
+      </c>
+      <c r="J37" s="3">
+        <f t="shared" ref="J37:J38" si="10">ABS(H37-I37)</f>
+        <v>0.15029999999999966</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="M37" s="3">
+        <f t="shared" ref="M37:M38" si="11">ABS(K37-L37)</f>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="1">
+        <v>7.02705</v>
+      </c>
+      <c r="C38" s="1">
+        <v>6.2346899999999996</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="8"/>
+        <v>0.7923600000000004</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1.1091500000000001</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.5811999999999999</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="9"/>
+        <v>0.47204999999999986</v>
+      </c>
+      <c r="H38" s="1">
+        <v>6.4962299999999997</v>
+      </c>
+      <c r="I38" s="1">
+        <v>6.15</v>
+      </c>
+      <c r="J38" s="3">
+        <f t="shared" si="10"/>
+        <v>0.34622999999999937</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1.2707599999999999</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="M38" s="3">
+        <f t="shared" si="11"/>
+        <v>0.22075999999999985</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1">
+        <v>27.881699999999999</v>
+      </c>
+      <c r="C39" s="1">
+        <v>27.078600000000002</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="8"/>
+        <v>0.80309999999999704</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1.7909600000000001</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2.31833</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="9"/>
+        <v>0.52736999999999989</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="1">
+        <v>17.884</v>
+      </c>
+      <c r="C40" s="1">
+        <v>17.084700000000002</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="8"/>
+        <v>0.79929999999999879</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1.93767</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2.4605000000000001</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="9"/>
+        <v>0.52283000000000013</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="1">
+        <v>27.1358</v>
+      </c>
+      <c r="C41" s="1">
+        <v>26.7562</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="8"/>
+        <v>0.37959999999999994</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1.5688200000000001</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1.9415100000000001</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="9"/>
+        <v>0.37268999999999997</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="1">
+        <v>17.142299999999999</v>
+      </c>
+      <c r="C42" s="1">
+        <v>16.7638</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="8"/>
+        <v>0.37849999999999895</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1.54965</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1.92424</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="9"/>
         <v>0.37458999999999998</v>
       </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
-        <v>6.15</v>
-      </c>
-      <c r="J35" s="3">
-        <f t="shared" si="6"/>
-        <v>6.15</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
-      <c r="L35" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="M35" s="3">
-        <f t="shared" si="7"/>
-        <v>1.05</v>
-      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
